--- a/publication/web-root/matchsync/0.1.1/ValueSet-icd10-gvhd-codes.xlsx
+++ b/publication/web-root/matchsync/0.1.1/ValueSet-icd10-gvhd-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-11T17:47:55-06:00</t>
+    <t>2024-12-02T18:26:03-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/publication/web-root/matchsync/0.1.1/ValueSet-icd10-gvhd-codes.xlsx
+++ b/publication/web-root/matchsync/0.1.1/ValueSet-icd10-gvhd-codes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,46 +42,49 @@
     <t>Title</t>
   </si>
   <si>
+    <t>ICD-10 (GVHD) Codes</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2025-04-15T15:35:56-05:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>NMDP</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>NMDP (http://bethematch.org)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>GVHD ICD-10 Codes</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>draft</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2024-12-02T18:26:03-06:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>NMDP</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>NMDP (http://bethematch.org)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Description</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -348,27 +351,27 @@
         <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -393,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -401,13 +404,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -420,10 +423,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
